--- a/Code/Results/Cases/Case_3_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_68/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.83958315792336</v>
+        <v>15.74285042289024</v>
       </c>
       <c r="C2">
-        <v>18.18665710193144</v>
+        <v>10.68179576668495</v>
       </c>
       <c r="D2">
-        <v>10.87047147239636</v>
+        <v>12.1242983394225</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.77417309086881</v>
+        <v>26.75610915630249</v>
       </c>
       <c r="G2">
-        <v>16.49926118312899</v>
+        <v>22.73499991218451</v>
       </c>
       <c r="H2">
-        <v>7.107234448201964</v>
+        <v>12.82079565294901</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.308867990562268</v>
+        <v>11.26468044751778</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.02205232107682</v>
+        <v>18.70095410631783</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.21537975938331</v>
+        <v>14.94739067431882</v>
       </c>
       <c r="C3">
-        <v>17.08361407050122</v>
+        <v>10.05638762785308</v>
       </c>
       <c r="D3">
-        <v>10.31703636418236</v>
+        <v>12.01301686369503</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.35156183218872</v>
+        <v>26.83765529862294</v>
       </c>
       <c r="G3">
-        <v>16.1427742359225</v>
+        <v>22.88637762022889</v>
       </c>
       <c r="H3">
-        <v>7.220327702093321</v>
+        <v>12.89201821735609</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.023824365887435</v>
+        <v>11.2443736707799</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.09946620573633</v>
+        <v>18.82498018882316</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.15933302565439</v>
+        <v>14.43603411719885</v>
       </c>
       <c r="C4">
-        <v>16.36972924088457</v>
+        <v>9.65069987329476</v>
       </c>
       <c r="D4">
-        <v>9.966046933531318</v>
+        <v>11.94613701285682</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.11580678353578</v>
+        <v>26.89727908482472</v>
       </c>
       <c r="G4">
-        <v>15.96686227557153</v>
+        <v>22.99204908865799</v>
       </c>
       <c r="H4">
-        <v>7.29776821307494</v>
+        <v>12.938664330664</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.849283808148202</v>
+        <v>11.23419663554275</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.16761669005842</v>
+        <v>18.9072299129571</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.71415653125079</v>
+        <v>14.22207905388169</v>
       </c>
       <c r="C5">
-        <v>16.06968707305675</v>
+        <v>9.479998139963033</v>
       </c>
       <c r="D5">
-        <v>9.820365737436177</v>
+        <v>11.91927190494113</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.02566786983814</v>
+        <v>26.92396583301379</v>
       </c>
       <c r="G5">
-        <v>15.90569824621388</v>
+        <v>23.03827653945495</v>
       </c>
       <c r="H5">
-        <v>7.331228604627064</v>
+        <v>12.95840542180684</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.778370064828946</v>
+        <v>11.23062840469949</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.20024796838797</v>
+        <v>18.9422741660774</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.63933848541598</v>
+        <v>14.18622179170544</v>
       </c>
       <c r="C6">
-        <v>16.01931683300486</v>
+        <v>9.451330734637558</v>
       </c>
       <c r="D6">
-        <v>9.796020702157609</v>
+        <v>11.91483518408326</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.01105710829899</v>
+        <v>26.9285410764161</v>
       </c>
       <c r="G6">
-        <v>15.89616730852519</v>
+        <v>23.04614273993383</v>
       </c>
       <c r="H6">
-        <v>7.336896567728683</v>
+        <v>12.96172763396797</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.766610594374668</v>
+        <v>11.23007094504908</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.20595045112051</v>
+        <v>18.94818526930054</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.15338931785478</v>
+        <v>14.43317092537995</v>
       </c>
       <c r="C7">
-        <v>16.36571960311149</v>
+        <v>9.648419407711097</v>
       </c>
       <c r="D7">
-        <v>9.964092722287791</v>
+        <v>11.94577309316626</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.11456718338227</v>
+        <v>26.89762933412538</v>
       </c>
       <c r="G7">
-        <v>15.96599524079745</v>
+        <v>22.99265975736668</v>
       </c>
       <c r="H7">
-        <v>7.298211905526253</v>
+        <v>12.9389276011868</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.848326450793254</v>
+        <v>11.23414616546221</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.16803751758408</v>
+        <v>18.90769635835134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.29172504111956</v>
+        <v>15.47344413553614</v>
       </c>
       <c r="C8">
-        <v>17.8139648415874</v>
+        <v>10.47069359767687</v>
       </c>
       <c r="D8">
-        <v>10.68205445371779</v>
+        <v>12.08564328204031</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.62352057973683</v>
+        <v>26.78223583914581</v>
       </c>
       <c r="G8">
-        <v>16.36728478849787</v>
+        <v>22.78453350810926</v>
       </c>
       <c r="H8">
-        <v>7.144500174695779</v>
+        <v>12.84474776884699</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.210539430875182</v>
+        <v>11.25720490734229</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.04426874791529</v>
+        <v>18.74244897503474</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.02131714624195</v>
+        <v>17.32443354234399</v>
       </c>
       <c r="C9">
-        <v>20.36139200640778</v>
+        <v>11.90876312452904</v>
       </c>
       <c r="D9">
-        <v>11.99565953661641</v>
+        <v>12.37028496797679</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.80995284465752</v>
+        <v>26.63228932244721</v>
       </c>
       <c r="G9">
-        <v>17.50280496329327</v>
+        <v>22.4788524519339</v>
       </c>
       <c r="H9">
-        <v>6.911895362238675</v>
+        <v>12.68322024509873</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.920945788423298</v>
+        <v>11.3204616036274</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.97971289982166</v>
+        <v>18.46706538221352</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.48314255026752</v>
+        <v>18.56175288437275</v>
       </c>
       <c r="C10">
-        <v>22.05338753322883</v>
+        <v>12.85675096504334</v>
       </c>
       <c r="D10">
-        <v>12.89752607732247</v>
+        <v>12.5841825767405</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.79508974385825</v>
+        <v>26.56932173742826</v>
       </c>
       <c r="G10">
-        <v>18.55351442467555</v>
+        <v>22.31868019904114</v>
       </c>
       <c r="H10">
-        <v>6.790986718446564</v>
+        <v>12.57870375826043</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.438688907416367</v>
+        <v>11.37771349960964</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.0603540939173</v>
+        <v>18.29480657540218</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.54374106586248</v>
+        <v>19.09690961782869</v>
       </c>
       <c r="C11">
-        <v>22.78420704143469</v>
+        <v>13.26416918252397</v>
       </c>
       <c r="D11">
-        <v>13.29330570469267</v>
+        <v>12.68219266394944</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.26730567966461</v>
+        <v>26.55104214738352</v>
       </c>
       <c r="G11">
-        <v>19.07784457175873</v>
+        <v>22.26018997653679</v>
       </c>
       <c r="H11">
-        <v>6.748773169413948</v>
+        <v>12.5342401821166</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.672618734663422</v>
+        <v>11.40604264779191</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.12875471046797</v>
+        <v>18.22305713151574</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.93692971960286</v>
+        <v>19.29550587021096</v>
       </c>
       <c r="C12">
-        <v>23.05538108057436</v>
+        <v>13.41500772676344</v>
       </c>
       <c r="D12">
-        <v>13.44105397938857</v>
+        <v>12.71938010281937</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.44952546253027</v>
+        <v>26.54561821723207</v>
       </c>
       <c r="G12">
-        <v>19.28293843989911</v>
+        <v>22.24013774225707</v>
       </c>
       <c r="H12">
-        <v>6.734800646946288</v>
+        <v>12.51784705748712</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.760928869990819</v>
+        <v>11.41709321493306</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.15950921210278</v>
+        <v>18.19684569794912</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.85262324870459</v>
+        <v>19.25291599660742</v>
       </c>
       <c r="C13">
-        <v>22.99722627117461</v>
+        <v>13.38267521649036</v>
       </c>
       <c r="D13">
-        <v>13.40932874959678</v>
+        <v>12.71136832160387</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.41013078705323</v>
+        <v>26.54671961796234</v>
       </c>
       <c r="G13">
-        <v>19.238479116801</v>
+        <v>22.24436263983084</v>
       </c>
       <c r="H13">
-        <v>6.73771748785297</v>
+        <v>12.52135783242456</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.741922483794689</v>
+        <v>11.41469900950215</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.15266549919261</v>
+        <v>18.20244804459136</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.57625748620684</v>
+        <v>19.11332989939449</v>
       </c>
       <c r="C14">
-        <v>22.80662820477706</v>
+        <v>13.27664781075423</v>
       </c>
       <c r="D14">
-        <v>13.30550381400232</v>
+        <v>12.6852507937415</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.28222916311456</v>
+        <v>26.55056585261869</v>
       </c>
       <c r="G14">
-        <v>19.09458747070262</v>
+        <v>22.25849808049594</v>
       </c>
       <c r="H14">
-        <v>6.747582271295674</v>
+        <v>12.53288259934539</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.679889771278189</v>
+        <v>11.40694534640222</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.1311860716679</v>
+        <v>18.22088144629139</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.40587950445521</v>
+        <v>19.0272992901073</v>
       </c>
       <c r="C15">
-        <v>22.68915657263816</v>
+        <v>13.2112543588635</v>
       </c>
       <c r="D15">
-        <v>13.24163034654907</v>
+        <v>12.6692617358564</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.2043270258572</v>
+        <v>26.55311709292267</v>
       </c>
       <c r="G15">
-        <v>19.00729742905902</v>
+        <v>22.2674303605046</v>
       </c>
       <c r="H15">
-        <v>6.753892191438496</v>
+        <v>12.53999974353133</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.641856119482762</v>
+        <v>11.40223788442787</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.1186694660648</v>
+        <v>18.23229749599143</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.41264427203062</v>
+        <v>18.52621513162103</v>
       </c>
       <c r="C16">
-        <v>22.00484582132292</v>
+        <v>12.82964430468075</v>
       </c>
       <c r="D16">
-        <v>12.87136552125386</v>
+        <v>12.57778917252949</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.76470856619087</v>
+        <v>26.57072560599076</v>
       </c>
       <c r="G16">
-        <v>18.52017102825986</v>
+        <v>22.3227944935746</v>
       </c>
       <c r="H16">
-        <v>6.794017449032191</v>
+        <v>12.58167166235966</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.423364884611891</v>
+        <v>11.37590763032863</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.0565477209879</v>
+        <v>18.2996292789146</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.78820111089786</v>
+        <v>18.21166409188882</v>
       </c>
       <c r="C17">
-        <v>21.57509585024544</v>
+        <v>12.58942334722643</v>
       </c>
       <c r="D17">
-        <v>12.6404751510578</v>
+        <v>12.5218344657735</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.50113946248393</v>
+        <v>26.58418841516875</v>
       </c>
       <c r="G17">
-        <v>18.23312889050035</v>
+        <v>22.36046172381489</v>
       </c>
       <c r="H17">
-        <v>6.82202900105609</v>
+        <v>12.60802608300589</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.288883931909462</v>
+        <v>11.36033623413479</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.02677724029134</v>
+        <v>18.34263410323393</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.4234507295727</v>
+        <v>18.02813808963905</v>
       </c>
       <c r="C18">
-        <v>21.32425376866035</v>
+        <v>12.44901249138845</v>
       </c>
       <c r="D18">
-        <v>12.50631123009852</v>
+        <v>12.48971904621744</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.3518109782797</v>
+        <v>26.59290705949311</v>
       </c>
       <c r="G18">
-        <v>18.07240320760672</v>
+        <v>22.3834780866889</v>
       </c>
       <c r="H18">
-        <v>6.839333166398097</v>
+        <v>12.6234744217736</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.211385984110461</v>
+        <v>11.35159541759143</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.01262337337075</v>
+        <v>18.36799122116925</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.2989902662175</v>
+        <v>17.9655544386554</v>
       </c>
       <c r="C19">
-        <v>21.23869372451833</v>
+        <v>12.40108727894259</v>
       </c>
       <c r="D19">
-        <v>12.46065327799683</v>
+        <v>12.47885790967704</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.30164255297986</v>
+        <v>26.59602627603077</v>
       </c>
       <c r="G19">
-        <v>18.01873869857999</v>
+        <v>22.39150215428183</v>
       </c>
       <c r="H19">
-        <v>6.845391763120095</v>
+        <v>12.62875473278982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.185122626531379</v>
+        <v>11.34867309381926</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.00833178231503</v>
+        <v>18.37668327988077</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.85525177090376</v>
+        <v>18.24541871704908</v>
       </c>
       <c r="C20">
-        <v>21.62122229163846</v>
+        <v>12.61522746086159</v>
       </c>
       <c r="D20">
-        <v>12.66519513174622</v>
+        <v>12.527784083474</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.52896239964222</v>
+        <v>26.58265428719207</v>
       </c>
       <c r="G20">
-        <v>18.26323320589048</v>
+        <v>22.35631191928691</v>
       </c>
       <c r="H20">
-        <v>6.818922459105703</v>
+        <v>12.60519059062273</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.303215342212496</v>
+        <v>11.36197157822958</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.02963684617046</v>
+        <v>18.33799174818335</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.65766104048605</v>
+        <v>19.15444029924176</v>
       </c>
       <c r="C21">
-        <v>22.86276247820002</v>
+        <v>13.30788413890882</v>
       </c>
       <c r="D21">
-        <v>13.3360576388744</v>
+        <v>12.69292038608062</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.31970510489112</v>
+        <v>26.54939540581021</v>
       </c>
       <c r="G21">
-        <v>19.13667552017439</v>
+        <v>22.25428902463667</v>
       </c>
       <c r="H21">
-        <v>6.744628684205921</v>
+        <v>12.52948542923581</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.698118021071863</v>
+        <v>11.40921406801346</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.13736120850552</v>
+        <v>18.21544103330851</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.78650842497889</v>
+        <v>19.7248734557419</v>
       </c>
       <c r="C22">
-        <v>23.64172238359595</v>
+        <v>13.74050984852675</v>
       </c>
       <c r="D22">
-        <v>13.76211112956542</v>
+        <v>12.80125977181293</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.85630578078845</v>
+        <v>26.53639382856357</v>
       </c>
       <c r="G22">
-        <v>19.74557758390474</v>
+        <v>22.19984511551512</v>
       </c>
       <c r="H22">
-        <v>6.707893002686173</v>
+        <v>12.48259782698388</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.954599714824102</v>
+        <v>11.44196914894236</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.23616567560554</v>
+        <v>18.14093770740219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.18848557428717</v>
+        <v>19.42260800167869</v>
       </c>
       <c r="C23">
-        <v>23.22893769348103</v>
+        <v>13.51144912289672</v>
       </c>
       <c r="D23">
-        <v>13.53586223489207</v>
+        <v>12.74340856182318</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.5681183626502</v>
+        <v>26.54253155261746</v>
       </c>
       <c r="G23">
-        <v>19.4171596236882</v>
+        <v>22.22777405101241</v>
       </c>
       <c r="H23">
-        <v>6.726358147943312</v>
+        <v>12.50738523496234</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.817869837361439</v>
+        <v>11.42431715800032</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.1807440256661</v>
+        <v>18.18018741512357</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.82495608326079</v>
+        <v>18.23016661302989</v>
       </c>
       <c r="C24">
-        <v>21.60038028117138</v>
+        <v>12.60356859830469</v>
       </c>
       <c r="D24">
-        <v>12.65402365422831</v>
+        <v>12.52509409191301</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.51637678980055</v>
+        <v>26.58334481844379</v>
       </c>
       <c r="G24">
-        <v>18.24960964620086</v>
+        <v>22.3581838088391</v>
       </c>
       <c r="H24">
-        <v>6.820323202198554</v>
+        <v>12.60647159217717</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.296736678262763</v>
+        <v>11.36123158029799</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.0283348161816</v>
+        <v>18.3400885854651</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.0615807939559</v>
+        <v>16.84478058257225</v>
       </c>
       <c r="C25">
-        <v>19.70376514991856</v>
+        <v>11.5386716503947</v>
       </c>
       <c r="D25">
-        <v>11.65107253356724</v>
+        <v>12.29233100002786</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.46889491253262</v>
+        <v>26.66460864529614</v>
       </c>
       <c r="G25">
-        <v>17.15757775553297</v>
+        <v>22.55037236775467</v>
       </c>
       <c r="H25">
-        <v>6.966663039741139</v>
+        <v>12.72443450775921</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.729227052995862</v>
+        <v>11.30143863264845</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.9760625070941</v>
+        <v>18.53631322235229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_68/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.74285042289024</v>
+        <v>24.83958315792341</v>
       </c>
       <c r="C2">
-        <v>10.68179576668495</v>
+        <v>18.18665710193144</v>
       </c>
       <c r="D2">
-        <v>12.1242983394225</v>
+        <v>10.87047147239641</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.75610915630249</v>
+        <v>18.7741730908688</v>
       </c>
       <c r="G2">
-        <v>22.73499991218451</v>
+        <v>16.49926118312889</v>
       </c>
       <c r="H2">
-        <v>12.82079565294901</v>
+        <v>7.107234448202009</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.26468044751778</v>
+        <v>8.308867990562316</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.70095410631783</v>
+        <v>11.02205232107676</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.94739067431882</v>
+        <v>23.21537975938329</v>
       </c>
       <c r="C3">
-        <v>10.05638762785308</v>
+        <v>17.08361407050133</v>
       </c>
       <c r="D3">
-        <v>12.01301686369503</v>
+        <v>10.31703636418228</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.83765529862294</v>
+        <v>18.3515618321887</v>
       </c>
       <c r="G3">
-        <v>22.88637762022889</v>
+        <v>16.14277423592243</v>
       </c>
       <c r="H3">
-        <v>12.89201821735609</v>
+        <v>7.220327702093371</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.2443736707799</v>
+        <v>8.023824365887442</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.82498018882316</v>
+        <v>11.09946620573635</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.43603411719885</v>
+        <v>22.1593330256544</v>
       </c>
       <c r="C4">
-        <v>9.65069987329476</v>
+        <v>16.36972924088448</v>
       </c>
       <c r="D4">
-        <v>11.94613701285682</v>
+        <v>9.966046933531251</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.89727908482472</v>
+        <v>18.11580678353567</v>
       </c>
       <c r="G4">
-        <v>22.99204908865799</v>
+        <v>15.96686227557147</v>
       </c>
       <c r="H4">
-        <v>12.938664330664</v>
+        <v>7.29776821307494</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.23419663554275</v>
+        <v>7.849283808148163</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.9072299129571</v>
+        <v>11.1676166900584</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.22207905388169</v>
+        <v>21.71415653125085</v>
       </c>
       <c r="C5">
-        <v>9.479998139963033</v>
+        <v>16.06968707305667</v>
       </c>
       <c r="D5">
-        <v>11.91927190494113</v>
+        <v>9.820365737436068</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.92396583301379</v>
+        <v>18.02566786983803</v>
       </c>
       <c r="G5">
-        <v>23.03827653945495</v>
+        <v>15.90569824621384</v>
       </c>
       <c r="H5">
-        <v>12.95840542180684</v>
+        <v>7.331228604627063</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.23062840469949</v>
+        <v>7.77837006482892</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.9422741660774</v>
+        <v>11.20024796838793</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.18622179170544</v>
+        <v>21.63933848541598</v>
       </c>
       <c r="C6">
-        <v>9.451330734637558</v>
+        <v>16.01931683300494</v>
       </c>
       <c r="D6">
-        <v>11.91483518408326</v>
+        <v>9.796020702157618</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.9285410764161</v>
+        <v>18.01105710829895</v>
       </c>
       <c r="G6">
-        <v>23.04614273993383</v>
+        <v>15.89616730852512</v>
       </c>
       <c r="H6">
-        <v>12.96172763396797</v>
+        <v>7.336896567728616</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.23007094504908</v>
+        <v>7.766610594374629</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.94818526930054</v>
+        <v>11.20595045112048</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.43317092537995</v>
+        <v>22.15338931785485</v>
       </c>
       <c r="C7">
-        <v>9.648419407711097</v>
+        <v>16.36571960311143</v>
       </c>
       <c r="D7">
-        <v>11.94577309316626</v>
+        <v>9.964092722287763</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.89762933412538</v>
+        <v>18.11456718338217</v>
       </c>
       <c r="G7">
-        <v>22.99265975736668</v>
+        <v>15.96599524079742</v>
       </c>
       <c r="H7">
-        <v>12.9389276011868</v>
+        <v>7.298211905526192</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.23414616546221</v>
+        <v>7.848326450793247</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.90769635835134</v>
+        <v>11.16803751758402</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.47344413553614</v>
+        <v>24.29172504111956</v>
       </c>
       <c r="C8">
-        <v>10.47069359767687</v>
+        <v>17.8139648415874</v>
       </c>
       <c r="D8">
-        <v>12.08564328204031</v>
+        <v>10.68205445371776</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.78223583914581</v>
+        <v>18.62352057973681</v>
       </c>
       <c r="G8">
-        <v>22.78453350810926</v>
+        <v>16.36728478849787</v>
       </c>
       <c r="H8">
-        <v>12.84474776884699</v>
+        <v>7.144500174695772</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.25720490734229</v>
+        <v>8.210539430875185</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.74244897503474</v>
+        <v>11.04426874791531</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.32443354234399</v>
+        <v>28.02131714624199</v>
       </c>
       <c r="C9">
-        <v>11.90876312452904</v>
+        <v>20.36139200640778</v>
       </c>
       <c r="D9">
-        <v>12.37028496797679</v>
+        <v>11.99565953661637</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.63228932244721</v>
+        <v>19.8099528446575</v>
       </c>
       <c r="G9">
-        <v>22.4788524519339</v>
+        <v>17.50280496329327</v>
       </c>
       <c r="H9">
-        <v>12.68322024509873</v>
+        <v>6.911895362238638</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.3204616036274</v>
+        <v>8.920945788423289</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.46706538221352</v>
+        <v>10.97971289982168</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.56175288437275</v>
+        <v>30.48314255026748</v>
       </c>
       <c r="C10">
-        <v>12.85675096504334</v>
+        <v>22.05338753322883</v>
       </c>
       <c r="D10">
-        <v>12.5841825767405</v>
+        <v>12.89752607732249</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.56932173742826</v>
+        <v>20.79508974385829</v>
       </c>
       <c r="G10">
-        <v>22.31868019904114</v>
+        <v>18.55351442467563</v>
       </c>
       <c r="H10">
-        <v>12.57870375826043</v>
+        <v>6.790986718446608</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.37771349960964</v>
+        <v>9.438688907416385</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.29480657540218</v>
+        <v>11.06035409391736</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.09690961782869</v>
+        <v>31.54374106586248</v>
       </c>
       <c r="C11">
-        <v>13.26416918252397</v>
+        <v>22.78420704143464</v>
       </c>
       <c r="D11">
-        <v>12.68219266394944</v>
+        <v>13.2933057046927</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.55104214738352</v>
+        <v>21.26730567966459</v>
       </c>
       <c r="G11">
-        <v>22.26018997653679</v>
+        <v>19.07784457175871</v>
       </c>
       <c r="H11">
-        <v>12.5342401821166</v>
+        <v>6.748773169413965</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.40604264779191</v>
+        <v>9.67261873466339</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.22305713151574</v>
+        <v>11.12875471046797</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.29550587021096</v>
+        <v>31.93692971960293</v>
       </c>
       <c r="C12">
-        <v>13.41500772676344</v>
+        <v>23.05538108057441</v>
       </c>
       <c r="D12">
-        <v>12.71938010281937</v>
+        <v>13.4410539793885</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.54561821723207</v>
+        <v>21.4495254625302</v>
       </c>
       <c r="G12">
-        <v>22.24013774225707</v>
+        <v>19.28293843989907</v>
       </c>
       <c r="H12">
-        <v>12.51784705748712</v>
+        <v>6.734800646946253</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.41709321493306</v>
+        <v>9.760928869990833</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.19684569794912</v>
+        <v>11.15950921210268</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.25291599660742</v>
+        <v>31.85262324870454</v>
       </c>
       <c r="C13">
-        <v>13.38267521649036</v>
+        <v>22.99722627117458</v>
       </c>
       <c r="D13">
-        <v>12.71136832160387</v>
+        <v>13.40932874959675</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.54671961796234</v>
+        <v>21.41013078705324</v>
       </c>
       <c r="G13">
-        <v>22.24436263983084</v>
+        <v>19.23847911680101</v>
       </c>
       <c r="H13">
-        <v>12.52135783242456</v>
+        <v>6.737717487852947</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.41469900950215</v>
+        <v>9.741922483794703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.20244804459136</v>
+        <v>11.15266549919264</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.11332989939449</v>
+        <v>31.57625748620685</v>
       </c>
       <c r="C14">
-        <v>13.27664781075423</v>
+        <v>22.80662820477707</v>
       </c>
       <c r="D14">
-        <v>12.6852507937415</v>
+        <v>13.30550381400229</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.55056585261869</v>
+        <v>21.28222916311447</v>
       </c>
       <c r="G14">
-        <v>22.25849808049594</v>
+        <v>19.09458747070251</v>
       </c>
       <c r="H14">
-        <v>12.53288259934539</v>
+        <v>6.747582271295598</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.40694534640222</v>
+        <v>9.679889771278201</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.22088144629139</v>
+        <v>11.1311860716678</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.0272992901073</v>
+        <v>31.40587950445518</v>
       </c>
       <c r="C15">
-        <v>13.2112543588635</v>
+        <v>22.68915657263819</v>
       </c>
       <c r="D15">
-        <v>12.6692617358564</v>
+        <v>13.24163034654905</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.55311709292267</v>
+        <v>21.20432702585719</v>
       </c>
       <c r="G15">
-        <v>22.2674303605046</v>
+        <v>19.007297429059</v>
       </c>
       <c r="H15">
-        <v>12.53999974353133</v>
+        <v>6.753892191438496</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.40223788442787</v>
+        <v>9.641856119482783</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.23229749599143</v>
+        <v>11.11866946606481</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.52621513162103</v>
+        <v>30.41264427203056</v>
       </c>
       <c r="C16">
-        <v>12.82964430468075</v>
+        <v>22.00484582132296</v>
       </c>
       <c r="D16">
-        <v>12.57778917252949</v>
+        <v>12.87136552125387</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.57072560599076</v>
+        <v>20.76470856619096</v>
       </c>
       <c r="G16">
-        <v>22.3227944935746</v>
+        <v>18.52017102826001</v>
       </c>
       <c r="H16">
-        <v>12.58167166235966</v>
+        <v>6.794017449032241</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.37590763032863</v>
+        <v>9.423364884611887</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.2996292789146</v>
+        <v>11.05654772098798</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.21166409188882</v>
+        <v>29.78820111089786</v>
       </c>
       <c r="C17">
-        <v>12.58942334722643</v>
+        <v>21.57509585024532</v>
       </c>
       <c r="D17">
-        <v>12.5218344657735</v>
+        <v>12.64047515105779</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.58418841516875</v>
+        <v>20.50113946248393</v>
       </c>
       <c r="G17">
-        <v>22.36046172381489</v>
+        <v>18.23312889050041</v>
       </c>
       <c r="H17">
-        <v>12.60802608300589</v>
+        <v>6.822029001056038</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.36033623413479</v>
+        <v>9.288883931909474</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.34263410323393</v>
+        <v>11.02677724029136</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.02813808963905</v>
+        <v>29.42345072957271</v>
       </c>
       <c r="C18">
-        <v>12.44901249138845</v>
+        <v>21.32425376866038</v>
       </c>
       <c r="D18">
-        <v>12.48971904621744</v>
+        <v>12.50631123009845</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.59290705949311</v>
+        <v>20.35181097827954</v>
       </c>
       <c r="G18">
-        <v>22.3834780866889</v>
+        <v>18.07240320760659</v>
       </c>
       <c r="H18">
-        <v>12.6234744217736</v>
+        <v>6.839333166397989</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.35159541759143</v>
+        <v>9.211385984110416</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.36799122116925</v>
+        <v>11.01262337337063</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.9655544386554</v>
+        <v>29.29899026621745</v>
       </c>
       <c r="C19">
-        <v>12.40108727894259</v>
+        <v>21.2386937245183</v>
       </c>
       <c r="D19">
-        <v>12.47885790967704</v>
+        <v>12.46065327799683</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.59602627603077</v>
+        <v>20.30164255298</v>
       </c>
       <c r="G19">
-        <v>22.39150215428183</v>
+        <v>18.01873869858015</v>
       </c>
       <c r="H19">
-        <v>12.62875473278982</v>
+        <v>6.845391763120152</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.34867309381926</v>
+        <v>9.185122626531394</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.37668327988077</v>
+        <v>11.00833178231521</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.24541871704908</v>
+        <v>29.85525177090377</v>
       </c>
       <c r="C20">
-        <v>12.61522746086159</v>
+        <v>21.62122229163849</v>
       </c>
       <c r="D20">
-        <v>12.527784083474</v>
+        <v>12.66519513174621</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.58265428719207</v>
+        <v>20.52896239964226</v>
       </c>
       <c r="G20">
-        <v>22.35631191928691</v>
+        <v>18.26323320589059</v>
       </c>
       <c r="H20">
-        <v>12.60519059062273</v>
+        <v>6.818922459105642</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.36197157822958</v>
+        <v>9.303215342212487</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.33799174818335</v>
+        <v>11.02963684617047</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.15444029924176</v>
+        <v>31.65766104048598</v>
       </c>
       <c r="C21">
-        <v>13.30788413890882</v>
+        <v>22.8627624782001</v>
       </c>
       <c r="D21">
-        <v>12.69292038608062</v>
+        <v>13.33605763887439</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.54939540581021</v>
+        <v>21.31970510489115</v>
       </c>
       <c r="G21">
-        <v>22.25428902463667</v>
+        <v>19.13667552017447</v>
       </c>
       <c r="H21">
-        <v>12.52948542923581</v>
+        <v>6.744628684205932</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.40921406801346</v>
+        <v>9.698118021071858</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.21544103330851</v>
+        <v>11.13736120850553</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.7248734557419</v>
+        <v>32.7865084249789</v>
       </c>
       <c r="C22">
-        <v>13.74050984852675</v>
+        <v>23.64172238359588</v>
       </c>
       <c r="D22">
-        <v>12.80125977181293</v>
+        <v>13.76211112956539</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.53639382856357</v>
+        <v>21.85630578078847</v>
       </c>
       <c r="G22">
-        <v>22.19984511551512</v>
+        <v>19.7455775839048</v>
       </c>
       <c r="H22">
-        <v>12.48259782698388</v>
+        <v>6.707893002686141</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.44196914894236</v>
+        <v>9.954599714824104</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.14093770740219</v>
+        <v>11.23616567560554</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.42260800167869</v>
+        <v>32.18848557428724</v>
       </c>
       <c r="C23">
-        <v>13.51144912289672</v>
+        <v>23.22893769348097</v>
       </c>
       <c r="D23">
-        <v>12.74340856182318</v>
+        <v>13.53586223489205</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.54253155261746</v>
+        <v>21.56811836265022</v>
       </c>
       <c r="G23">
-        <v>22.22777405101241</v>
+        <v>19.41715962368826</v>
       </c>
       <c r="H23">
-        <v>12.50738523496234</v>
+        <v>6.726358147943312</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.42431715800032</v>
+        <v>9.81786983736143</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.18018741512357</v>
+        <v>11.18074402566613</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.23016661302989</v>
+        <v>29.8249560832608</v>
       </c>
       <c r="C24">
-        <v>12.60356859830469</v>
+        <v>21.60038028117131</v>
       </c>
       <c r="D24">
-        <v>12.52509409191301</v>
+        <v>12.65402365422829</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.58334481844379</v>
+        <v>20.51637678980047</v>
       </c>
       <c r="G24">
-        <v>22.3581838088391</v>
+        <v>18.24960964620081</v>
       </c>
       <c r="H24">
-        <v>12.60647159217717</v>
+        <v>6.820323202198554</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.36123158029799</v>
+        <v>9.296736678262786</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.3400885854651</v>
+        <v>11.02833481618156</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.84478058257225</v>
+        <v>27.06158079395591</v>
       </c>
       <c r="C25">
-        <v>11.5386716503947</v>
+        <v>19.70376514991852</v>
       </c>
       <c r="D25">
-        <v>12.29233100002786</v>
+        <v>11.65107253356728</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.66460864529614</v>
+        <v>19.46889491253258</v>
       </c>
       <c r="G25">
-        <v>22.55037236775467</v>
+        <v>17.15757775553284</v>
       </c>
       <c r="H25">
-        <v>12.72443450775921</v>
+        <v>6.966663039741144</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.30143863264845</v>
+        <v>8.729227052995887</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.53631322235229</v>
+        <v>10.97606250709405</v>
       </c>
     </row>
   </sheetData>
